--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Spring.031020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Spring.031020.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2625,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2755,12 +2755,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3007,12 +3007,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3351,12 +3351,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3983,12 +3983,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4491,12 +4491,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4919,12 +4919,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5297,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5929,12 +5929,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6139,12 +6139,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6349,12 +6349,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7651,12 +7651,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7735,12 +7735,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8911,12 +8911,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9415,12 +9415,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9499,12 +9499,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9751,12 +9751,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9965,12 +9965,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10263,12 +10263,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10523,12 +10523,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10565,12 +10565,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10901,12 +10901,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11447,12 +11447,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11823,12 +11823,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11949,12 +11949,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12079,12 +12079,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12797,12 +12797,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12881,12 +12881,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13095,12 +13095,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13431,12 +13431,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14111,12 +14111,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14195,12 +14195,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15043,12 +15043,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15463,12 +15463,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16181,12 +16181,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16475,12 +16475,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
